--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC393BB9-4027-4122-A2FE-E4A9CE92144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCF3E5-E84C-440E-888F-67C5EF50E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2661,10 +2661,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14</t>
-  </si>
-  <si>
-    <t>S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24</t>
+    <t>S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7</t>
+  </si>
+  <si>
+    <t>S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24</v>
+        <v>S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14</v>
+        <v>S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B5B92D-C0E8-451F-863F-94990CC70921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139BB49F-5C11-413A-BC58-828F1EC09AEF}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6970,7 +6970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F471A3F-6651-4ECE-82C0-B23D21D1B38F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57F952D-99DB-48F5-A61C-D69F74143E3F}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7084,10 +7084,10 @@
         <v>468</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.29179740607263854</v>
+        <v>0.51636850169403736</v>
       </c>
       <c r="O5" t="s">
         <v>880</v>
@@ -7119,10 +7119,10 @@
         <v>468</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.51636850169403736</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O6" t="s">
         <v>880</v>
@@ -7154,10 +7154,10 @@
         <v>468</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.26113640777746605</v>
+        <v>7.1680441960335767E-2</v>
       </c>
       <c r="O7" t="s">
         <v>880</v>
@@ -7189,10 +7189,10 @@
         <v>468</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.1680441960335767E-2</v>
+        <v>0.29179740607263854</v>
       </c>
       <c r="O8" t="s">
         <v>880</v>
@@ -17474,7 +17474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E498B37D-34B1-49E9-A7E7-4283FF6098B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFDFE72-D4AC-4AFC-9B7C-C4BB95654756}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCF3E5-E84C-440E-888F-67C5EF50E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DAC990-1827-4B1C-B2FD-78A8FBF64BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2661,10 +2661,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7</t>
-  </si>
-  <si>
-    <t>S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24</t>
+    <t>S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13</t>
+  </si>
+  <si>
+    <t>S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24</v>
+        <v>S1c0204h24,S1e0218h01,S1e0218h02,S1e0218h05,S1e0218h20,S1g0402h22,S1h0520h02,S2aH8,S2i0704h02,S3j0818h04,S3k0825h19,S3l0923h23,S3m0926h03,S3n1012h19,S1d0207h06,S1d0207h23,S1f0219h01,S1f0219h05,S1f0219h20,S1h0520h23,S3k0825h05,S3l0923h24,S3m0926h21,S4o1105h02,S4o1105h24,S1c0204h03,S1g0402h01,S1g0402h23,S1h0520h01,S2i0704h22,S3j0818h20,S3l0923h01,S3m0926h20,S3m0926h22,S4aH8,S4o1105h23,S5p1210h19,S1aH1,S1c0204h02,S1e0218h03,S1e0218h04,S1f0219h06,S3j0818h03,S3n1012h06,S4o1105h06,S4o1105h21,S1d0207h19,S1g0402h19,S1h0520h03,S2i0704h04,S2i0704h06,S3j0818h24,S3k0825h22,S3m0926h05,S4o1105h05,S5p1210h03,S5p1210h04,S1b0112h01,S1b0112h20,S1e0218h24,S1f0219h04,S1f0219h21,S2aH1,S3j0818h01,S3j0818h02,S3j0818h06,S3j0818h19,S3l0923h04,S3m0926h06,S3m0926h24,S4o1105h19,S5aH8,S5p1210h20,S5p1210h23,S1c0204h20,S1g0402h20,S1h0520h04,S3j0818h22,S3k0825h24,S3l0923h06,S3l0923h22,S4o1105h20,S1b0112h19,S1d0207h20,S1d0207h22,S1d0207h24,S1e0218h21,S1f0219h22,S1h0520h20,S1h0520h22,S2i0704h05,S2i0704h23,S3k0825h02,S3l0923h20,S3m0926h02,S3n1012h04,S4o1105h22,S5p1210h06,S1aH8,S1b0112h03,S1c0204h21,S1d0207h04,S1f0219h19,S1g0402h04,S3k0825h01,S3k0825h04,S3l0923h03,S3l0923h19,S3m0926h19,S5aH1,S5p1210h02,S5p1210h22,S1b0112h02,S1e0218h06,S1g0402h24,S2i0704h19,S3l0923h21,S3n1012h02,S3n1012h05,S3n1012h20,S3n1012h23,S4o1105h01,S1b0112h24,S1c0204h01,S1c0204h04,S1c0204h19,S1d0207h05,S1f0219h02,S2i0704h21,S3j0818h21,S3k0825h06,S3k0825h23,S3n1012h03,S3n1012h21,S1b0112h22,S1c0204h06,S1h0520h05,S1h0520h19,S2i0704h24,S3aH8,S3n1012h01,S4o1105h03,S5p1210h21,S1c0204h23,S1d0207h02,S1d0207h21,S1e0218h19,S1f0219h03,S1f0219h24,S1h0520h06,S3n1012h22,S4aH1,S5p1210h01,S5p1210h24,S1b0112h06,S1c0204h22,S1f0219h23,S1g0402h03,S1g0402h21,S2i0704h01,S3aH1,S5p1210h05,S1b0112h21,S1d0207h03,S1e0218h22,S1g0402h05,S1g0402h06,S1h0520h21,S1h0520h24,S2i0704h03,S3j0818h05,S3k0825h03,S3k0825h21,S3m0926h01,S3n1012h24,S1b0112h04,S1b0112h05,S1b0112h23,S1c0204h05,S1d0207h01,S1e0218h23,S1g0402h02,S2i0704h20,S3j0818h23,S3k0825h20,S3l0923h02,S3l0923h05,S3m0926h04,S3m0926h23,S4o1105h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7</v>
+        <v>S1d0207h07,S1e0218h07,S1e0218h12,S2i0704h15,S3aH7,S3j0818h11,S3j0818h13,S3m0926h17,S3n1012h09,S3n1012h13,S4o1105h10,S1b0112h09,S1c0204h11,S1d0207h10,S1d0207h16,S1g0402h13,S1h0520h10,S1h0520h18,S3aH3,S3l0923h11,S3l0923h16,S3m0926h07,S3m0926h15,S3n1012h16,S4o1105h07,S5p1210h14,S1b0112h14,S1c0204h13,S1d0207h12,S2i0704h14,S2i0704h18,S3j0818h14,S3k0825h08,S3k0825h18,S3l0923h12,S3m0926h14,S1c0204h12,S1c0204h16,S1d0207h15,S1f0219h13,S1f0219h14,S1f0219h15,S1h0520h14,S1h0520h17,S3m0926h18,S3n1012h07,S5p1210h17,S1b0112h13,S1d0207h17,S1g0402h14,S2aH7,S2i0704h07,S2i0704h08,S3aH4,S3j0818h18,S3l0923h08,S3m0926h16,S3n1012h08,S3n1012h10,S4aH3,S4aH4,S4o1105h08,S4o1105h12,S4o1105h18,S5p1210h08,S5p1210h10,S5p1210h12,S5p1210h16,S1b0112h15,S1g0402h07,S1g0402h12,S1g0402h17,S1h0520h08,S1h0520h16,S2i0704h09,S3j0818h15,S3k0825h07,S3m0926h10,S3n1012h15,S4aH2,S5p1210h07,S1b0112h07,S1d0207h09,S1f0219h09,S1h0520h12,S1h0520h15,S3j0818h17,S3k0825h12,S3k0825h17,S3l0923h07,S4aH5,S1aH6,S1c0204h10,S1d0207h13,S1e0218h13,S1f0219h07,S1f0219h10,S1g0402h18,S2i0704h11,S3l0923h17,S1b0112h10,S1b0112h12,S1c0204h17,S1c0204h18,S1e0218h18,S1f0219h08,S1g0402h08,S2aH6,S3aH5,S3j0818h16,S3k0825h13,S3m0926h09,S4o1105h09,S4o1105h13,S5aH3,S1aH5,S1c0204h15,S1e0218h09,S1e0218h14,S1g0402h11,S1g0402h16,S1h0520h11,S2aH4,S2aH5,S3j0818h12,S3l0923h13,S3l0923h18,S3m0926h11,S3m0926h13,S3n1012h17,S4o1105h17,S5aH2,S5aH5,S5p1210h09,S1aH3,S1e0218h10,S1e0218h16,S1g0402h09,S3k0825h11,S3k0825h14,S3k0825h16,S3l0923h14,S3n1012h14,S1b0112h08,S1e0218h11,S1f0219h16,S1f0219h18,S1g0402h15,S1h0520h13,S2i0704h17,S3aH2,S3k0825h15,S3l0923h15,S3m0926h08,S3m0926h12,S5p1210h15,S5p1210h18,S1aH4,S1c0204h09,S1e0218h08,S1e0218h17,S1f0219h11,S1g0402h10,S1h0520h09,S2aH2,S2i0704h16,S3j0818h09,S3k0825h09,S3l0923h09,S3n1012h18,S4aH6,S5p1210h11,S1d0207h08,S1f0219h12,S1h0520h07,S2i0704h13,S3j0818h07,S3k0825h10,S4o1105h11,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1c0204h07,S1c0204h08,S1c0204h14,S1d0207h11,S1d0207h18,S1e0218h15,S2aH3,S2i0704h12,S3aH6,S3j0818h10,S3n1012h11,S3n1012h12,S4aH7,S4o1105h16,S5aH6,S5aH7,S1b0112h17,S1b0112h18,S1d0207h14,S1f0219h17,S2i0704h10,S3j0818h08,S3l0923h10,S4o1105h14,S4o1105h15,S5aH4,S5p1210h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139BB49F-5C11-413A-BC58-828F1EC09AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66F560B-18DA-412D-9AF4-E2ECB53679ED}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6970,7 +6970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57F952D-99DB-48F5-A61C-D69F74143E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0BE454-8E10-4ADF-AB92-6388ED03BA74}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7049,10 +7049,10 @@
         <v>468</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>5.9017242495522121E-2</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O4" t="s">
         <v>880</v>
@@ -7087,7 +7087,7 @@
         <v>76</v>
       </c>
       <c r="N5">
-        <v>0.51636850169403736</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O5" t="s">
         <v>880</v>
@@ -7119,10 +7119,10 @@
         <v>468</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>0.26113640777746605</v>
+        <v>0.2917974060726386</v>
       </c>
       <c r="O6" t="s">
         <v>880</v>
@@ -7157,7 +7157,7 @@
         <v>87</v>
       </c>
       <c r="N7">
-        <v>7.1680441960335767E-2</v>
+        <v>7.1680441960335781E-2</v>
       </c>
       <c r="O7" t="s">
         <v>880</v>
@@ -7189,10 +7189,10 @@
         <v>468</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.29179740607263854</v>
+        <v>5.9017242495522128E-2</v>
       </c>
       <c r="O8" t="s">
         <v>880</v>
@@ -17474,7 +17474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFDFE72-D4AC-4AFC-9B7C-C4BB95654756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD52850-4684-401C-B7C6-CC69058AF247}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89B51A-799F-4EB9-8391-2C05604BA776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30822A6B-3F95-4624-900D-0D494CB853A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2685,10 +2685,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0112h08,S1c0122h14,S1d0204h11,S1f0218h07,S1f0218h12,S2g0313h08,S2g0313h16,S3aH2,S4j0524h10,S4j0524h14,S6l0825h15,S6n1009h07,S6n1009h12,S6n1009h13,S6o1027h10,S6o1027h15,S2g0313h17,S4i0520h07,S4j0524h12,S4j0524h18,S6aH7,S6l0825h07,S6m0926h18,S6n1009h09,S6o1027h11,S6p1209h10,S1aH3,S1c0122h18,S1d0204h10,S1d0204h15,S1d0204h16,S1f0218h16,S2g0313h07,S2g0313h14,S2h0318h14,S6m0926h07,S6o1027h17,S6o1027h18,S6p1209h15,S1aH5,S1c0122h13,S1d0204h14,S2aH4,S2aH5,S2g0313h11,S2g0313h12,S2h0318h08,S4i0520h08,S4j0524h17,S5aH2,S5aH5,S5k0706h08,S6aH2,S6l0825h10,S6m0926h09,S6m0926h10,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1e0214h10,S2aH3,S3aH6,S4aH7,S4j0524h11,S5aH6,S5aH7,S5k0706h11,S5k0706h12,S6aH6,S6l0825h12,S6l0825h13,S1b0112h10,S1b0112h12,S1c0122h09,S1f0218h15,S2aH6,S2h0318h17,S3aH5,S4i0520h13,S4j0524h16,S5aH3,S5k0706h13,S6m0926h17,S6n1009h08,S6n1009h11,S6o1027h12,S6p1209h17,S6p1209h18,S1c0122h10,S1d0204h09,S1d0204h18,S1e0214h08,S1e0214h09,S1e0214h12,S2h0318h13,S3aH7,S4i0520h18,S6l0825h17,S6m0926h13,S6p1209h11,S6p1209h13,S1b0112h09,S1c0122h16,S1c0122h17,S1d0204h08,S1e0214h07,S1e0214h13,S1f0218h17,S2h0318h09,S2h0318h10,S2h0318h16,S3aH3,S4i0520h09,S5k0706h10,S6l0825h18,S6n1009h17,S6p1209h16,S1b0112h13,S1f0218h08,S1f0218h09,S2aH7,S2g0313h09,S2g0313h13,S2g0313h18,S3aH4,S4aH3,S4aH4,S4i0520h11,S4i0520h12,S5k0706h14,S6l0825h09,S6n1009h10,S6n1009h16,S6o1027h09,S1b0112h07,S1d0204h07,S1d0204h17,S1e0214h14,S1f0218h11,S2h0318h11,S4aH5,S4j0524h09,S4j0524h15,S5k0706h16,S5k0706h18,S6l0825h14,S6m0926h16,S6p1209h14,S1aH6,S1c0122h08,S1e0214h11,S1f0218h10,S2h0318h07,S6m0926h11,S6n1009h14,S6p1209h09,S1b0112h15,S1c0122h11,S1e0214h17,S2g0313h15,S2h0318h12,S4aH2,S4i0520h10,S4j0524h08,S4j0524h13,S5k0706h09,S6l0825h08,S6l0825h11,S6l0825h16,S6m0926h14,S6o1027h13,S1b0112h14,S1e0214h18,S1f0218h13,S1f0218h18,S2h0318h18,S4j0524h07,S5k0706h07,S5k0706h15,S5k0706h17,S6aH5,S6m0926h15,S6n1009h15,S6n1009h18,S6o1027h08,S6o1027h14,S1aH4,S1c0122h15,S1e0214h15,S2aH2,S2g0313h10,S4aH6,S4i0520h14,S4i0520h16,S1c0122h07,S1d0204h12,S1d0204h13,S1e0214h16,S4i0520h15,S4i0520h17,S6m0926h08,S6o1027h07,S6o1027h16,S6p1209h07,S6p1209h08,S1b0112h17,S1b0112h18,S1c0122h12,S1f0218h14,S2h0318h15,S5aH4,S6aH3,S6aH4,S6m0926h12,S6p1209h12</t>
-  </si>
-  <si>
-    <t>S1b0112h22,S1d0204h04,S1e0214h21,S1f0218h02,S1f0218h22,S2g0313h01,S2g0313h05,S3aH8,S4j0524h05,S5k0706h03,S6l0825h05,S6l0825h06,S6m0926h01,S6m0926h02,S6n1009h04,S6o1027h06,S1b0112h06,S1c0122h02,S1c0122h03,S1d0204h03,S1d0204h19,S1e0214h24,S1f0218h04,S1f0218h05,S1f0218h21,S2g0313h04,S2h0318h04,S2h0318h19,S2h0318h22,S3aH1,S5k0706h05,S5k0706h24,S6m0926h05,S6m0926h22,S6n1009h05,S6n1009h21,S6p1209h21,S6p1209h22,S1b0112h24,S1f0218h19,S4i0520h02,S6o1027h24,S6p1209h20,S1b0112h02,S4j0524h02,S5k0706h22,S6l0825h23,S6o1027h05,S6o1027h21,S6p1209h06,S1b0112h21,S1c0122h01,S1d0204h21,S1d0204h23,S1e0214h05,S2g0313h02,S2h0318h06,S2h0318h23,S4i0520h03,S4i0520h04,S4i0520h21,S4j0524h22,S4j0524h23,S6l0825h21,S6m0926h03,S6o1027h04,S1aH8,S1b0112h03,S1c0122h05,S1d0204h24,S2g0313h06,S2h0318h01,S4i0520h06,S4i0520h20,S5aH1,S6l0825h24,S6n1009h24,S6o1027h02,S6o1027h19,S1f0218h01,S2aH8,S2g0313h23,S2g0313h24,S2h0318h02,S4i0520h22,S4i0520h24,S4j0524h21,S5k0706h01,S6l0825h02,S6m0926h19,S6o1027h03,S1c0122h04,S1c0122h19,S1c0122h24,S1f0218h06,S1f0218h20,S1f0218h24,S2g0313h19,S2g0313h21,S2h0318h05,S2h0318h20,S4j0524h24,S6n1009h02,S1d0204h01,S1d0204h20,S1d0204h22,S1f0218h23,S2h0318h03,S4i0520h23,S6l0825h04,S6l0825h22,S6n1009h22,S6p1209h19,S1c0122h20,S1d0204h02,S1d0204h06,S1e0214h02,S1e0214h19,S1f0218h03,S2g0313h20,S4i0520h19,S4j0524h03,S4j0524h06,S5k0706h19,S6m0926h21,S6o1027h20,S6o1027h22,S6o1027h23,S6p1209h05,S1b0112h19,S1c0122h23,S2h0318h21,S5k0706h21,S6aH8,S6n1009h06,S1b0112h01,S1b0112h20,S1c0122h21,S1e0214h06,S1e0214h20,S2aH1,S4j0524h19,S4j0524h20,S5aH8,S5k0706h02,S6l0825h19,S6l0825h20,S6m0926h24,S6n1009h23,S6o1027h01,S1e0214h01,S1e0214h03,S2g0313h22,S4aH8,S5k0706h04,S6p1209h04,S6p1209h24,S1c0122h06,S1d0204h05,S1e0214h23,S2g0313h03,S4aH1,S4j0524h04,S5k0706h06,S6aH1,S6n1009h19,S6p1209h01,S6p1209h02,S6p1209h03,S6p1209h23,S1aH1,S1c0122h22,S1e0214h22,S2h0318h24,S4j0524h01,S6l0825h01,S6m0926h04,S6m0926h06,S6m0926h23,S6n1009h03,S1b0112h04,S1b0112h05,S1b0112h23,S1e0214h04,S4i0520h01,S4i0520h05,S5k0706h20,S5k0706h23,S6l0825h03,S6m0926h20,S6n1009h01,S6n1009h20</t>
+    <t>S1b0112h14,S1e0214h18,S1f0218h13,S1f0218h18,S2h0318h18,S4j0524h07,S5k0706h07,S5k0706h15,S5k0706h17,S6aH5,S6m0926h15,S6n1009h15,S6n1009h18,S6o1027h08,S6o1027h14,S1aH3,S1c0122h18,S1d0204h10,S1d0204h15,S1d0204h16,S1f0218h16,S2g0313h07,S2g0313h14,S2h0318h14,S6m0926h07,S6o1027h17,S6o1027h18,S6p1209h15,S1b0112h07,S1d0204h07,S1d0204h17,S1e0214h14,S1f0218h11,S2h0318h11,S4aH5,S4j0524h09,S4j0524h15,S5k0706h16,S5k0706h18,S6l0825h14,S6m0926h16,S6p1209h14,S1c0122h07,S1d0204h12,S1d0204h13,S1e0214h16,S4i0520h15,S4i0520h17,S6m0926h08,S6o1027h07,S6o1027h16,S6p1209h07,S6p1209h08,S1b0112h15,S1c0122h11,S1e0214h17,S2g0313h15,S2h0318h12,S4aH2,S4i0520h10,S4j0524h08,S4j0524h13,S5k0706h09,S6l0825h08,S6l0825h11,S6l0825h16,S6m0926h14,S6o1027h13,S1b0112h17,S1b0112h18,S1c0122h12,S1f0218h14,S2h0318h15,S5aH4,S6aH3,S6aH4,S6m0926h12,S6p1209h12,S1b0112h09,S1c0122h16,S1c0122h17,S1d0204h08,S1e0214h07,S1e0214h13,S1f0218h17,S2h0318h09,S2h0318h10,S2h0318h16,S3aH3,S4i0520h09,S5k0706h10,S6l0825h18,S6n1009h17,S6p1209h16,S1aH6,S1c0122h08,S1e0214h11,S1f0218h10,S2h0318h07,S6m0926h11,S6n1009h14,S6p1209h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1e0214h10,S2aH3,S3aH6,S4aH7,S4j0524h11,S5aH6,S5aH7,S5k0706h11,S5k0706h12,S6aH6,S6l0825h12,S6l0825h13,S1aH5,S1c0122h13,S1d0204h14,S2aH4,S2aH5,S2g0313h11,S2g0313h12,S2h0318h08,S4i0520h08,S4j0524h17,S5aH2,S5aH5,S5k0706h08,S6aH2,S6l0825h10,S6m0926h09,S6m0926h10,S1c0122h10,S1d0204h09,S1d0204h18,S1e0214h08,S1e0214h09,S1e0214h12,S2h0318h13,S3aH7,S4i0520h18,S6l0825h17,S6m0926h13,S6p1209h11,S6p1209h13,S1b0112h10,S1b0112h12,S1c0122h09,S1f0218h15,S2aH6,S2h0318h17,S3aH5,S4i0520h13,S4j0524h16,S5aH3,S5k0706h13,S6m0926h17,S6n1009h08,S6n1009h11,S6o1027h12,S6p1209h17,S6p1209h18,S2g0313h17,S4i0520h07,S4j0524h12,S4j0524h18,S6aH7,S6l0825h07,S6m0926h18,S6n1009h09,S6o1027h11,S6p1209h10,S1b0112h08,S1c0122h14,S1d0204h11,S1f0218h07,S1f0218h12,S2g0313h08,S2g0313h16,S3aH2,S4j0524h10,S4j0524h14,S6l0825h15,S6n1009h07,S6n1009h12,S6n1009h13,S6o1027h10,S6o1027h15,S1b0112h13,S1f0218h08,S1f0218h09,S2aH7,S2g0313h09,S2g0313h13,S2g0313h18,S3aH4,S4aH3,S4aH4,S4i0520h11,S4i0520h12,S5k0706h14,S6l0825h09,S6n1009h10,S6n1009h16,S6o1027h09,S1aH4,S1c0122h15,S1e0214h15,S2aH2,S2g0313h10,S4aH6,S4i0520h14,S4i0520h16</t>
+  </si>
+  <si>
+    <t>S1e0214h01,S1e0214h03,S2g0313h22,S4aH8,S5k0706h04,S6p1209h04,S6p1209h24,S1b0112h24,S1f0218h19,S4i0520h02,S6o1027h24,S6p1209h20,S1c0122h20,S1d0204h02,S1d0204h06,S1e0214h02,S1e0214h19,S1f0218h03,S2g0313h20,S4i0520h19,S4j0524h03,S4j0524h06,S5k0706h19,S6m0926h21,S6o1027h20,S6o1027h22,S6o1027h23,S6p1209h05,S1aH1,S1c0122h22,S1e0214h22,S2h0318h24,S4j0524h01,S6l0825h01,S6m0926h04,S6m0926h06,S6m0926h23,S6n1009h03,S1b0112h01,S1b0112h20,S1c0122h21,S1e0214h06,S1e0214h20,S2aH1,S4j0524h19,S4j0524h20,S5aH8,S5k0706h02,S6l0825h19,S6l0825h20,S6m0926h24,S6n1009h23,S6o1027h01,S1b0112h04,S1b0112h05,S1b0112h23,S1e0214h04,S4i0520h01,S4i0520h05,S5k0706h20,S5k0706h23,S6l0825h03,S6m0926h20,S6n1009h01,S6n1009h20,S1c0122h04,S1c0122h19,S1c0122h24,S1f0218h06,S1f0218h20,S1f0218h24,S2g0313h19,S2g0313h21,S2h0318h05,S2h0318h20,S4j0524h24,S6n1009h02,S1b0112h19,S1c0122h23,S2h0318h21,S5k0706h21,S6aH8,S6n1009h06,S1b0112h21,S1c0122h01,S1d0204h21,S1d0204h23,S1e0214h05,S2g0313h02,S2h0318h06,S2h0318h23,S4i0520h03,S4i0520h04,S4i0520h21,S4j0524h22,S4j0524h23,S6l0825h21,S6m0926h03,S6o1027h04,S1b0112h02,S4j0524h02,S5k0706h22,S6l0825h23,S6o1027h05,S6o1027h21,S6p1209h06,S1f0218h01,S2aH8,S2g0313h23,S2g0313h24,S2h0318h02,S4i0520h22,S4i0520h24,S4j0524h21,S5k0706h01,S6l0825h02,S6m0926h19,S6o1027h03,S1aH8,S1b0112h03,S1c0122h05,S1d0204h24,S2g0313h06,S2h0318h01,S4i0520h06,S4i0520h20,S5aH1,S6l0825h24,S6n1009h24,S6o1027h02,S6o1027h19,S1b0112h06,S1c0122h02,S1c0122h03,S1d0204h03,S1d0204h19,S1e0214h24,S1f0218h04,S1f0218h05,S1f0218h21,S2g0313h04,S2h0318h04,S2h0318h19,S2h0318h22,S3aH1,S5k0706h05,S5k0706h24,S6m0926h05,S6m0926h22,S6n1009h05,S6n1009h21,S6p1209h21,S6p1209h22,S1b0112h22,S1d0204h04,S1e0214h21,S1f0218h02,S1f0218h22,S2g0313h01,S2g0313h05,S3aH8,S4j0524h05,S5k0706h03,S6l0825h05,S6l0825h06,S6m0926h01,S6m0926h02,S6n1009h04,S6o1027h06,S1d0204h01,S1d0204h20,S1d0204h22,S1f0218h23,S2h0318h03,S4i0520h23,S6l0825h04,S6l0825h22,S6n1009h22,S6p1209h19,S1c0122h06,S1d0204h05,S1e0214h23,S2g0313h03,S4aH1,S4j0524h04,S5k0706h06,S6aH1,S6n1009h19,S6p1209h01,S6p1209h02,S6p1209h03,S6p1209h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0112h22,S1d0204h04,S1e0214h21,S1f0218h02,S1f0218h22,S2g0313h01,S2g0313h05,S3aH8,S4j0524h05,S5k0706h03,S6l0825h05,S6l0825h06,S6m0926h01,S6m0926h02,S6n1009h04,S6o1027h06,S1b0112h06,S1c0122h02,S1c0122h03,S1d0204h03,S1d0204h19,S1e0214h24,S1f0218h04,S1f0218h05,S1f0218h21,S2g0313h04,S2h0318h04,S2h0318h19,S2h0318h22,S3aH1,S5k0706h05,S5k0706h24,S6m0926h05,S6m0926h22,S6n1009h05,S6n1009h21,S6p1209h21,S6p1209h22,S1b0112h24,S1f0218h19,S4i0520h02,S6o1027h24,S6p1209h20,S1b0112h02,S4j0524h02,S5k0706h22,S6l0825h23,S6o1027h05,S6o1027h21,S6p1209h06,S1b0112h21,S1c0122h01,S1d0204h21,S1d0204h23,S1e0214h05,S2g0313h02,S2h0318h06,S2h0318h23,S4i0520h03,S4i0520h04,S4i0520h21,S4j0524h22,S4j0524h23,S6l0825h21,S6m0926h03,S6o1027h04,S1aH8,S1b0112h03,S1c0122h05,S1d0204h24,S2g0313h06,S2h0318h01,S4i0520h06,S4i0520h20,S5aH1,S6l0825h24,S6n1009h24,S6o1027h02,S6o1027h19,S1f0218h01,S2aH8,S2g0313h23,S2g0313h24,S2h0318h02,S4i0520h22,S4i0520h24,S4j0524h21,S5k0706h01,S6l0825h02,S6m0926h19,S6o1027h03,S1c0122h04,S1c0122h19,S1c0122h24,S1f0218h06,S1f0218h20,S1f0218h24,S2g0313h19,S2g0313h21,S2h0318h05,S2h0318h20,S4j0524h24,S6n1009h02,S1d0204h01,S1d0204h20,S1d0204h22,S1f0218h23,S2h0318h03,S4i0520h23,S6l0825h04,S6l0825h22,S6n1009h22,S6p1209h19,S1c0122h20,S1d0204h02,S1d0204h06,S1e0214h02,S1e0214h19,S1f0218h03,S2g0313h20,S4i0520h19,S4j0524h03,S4j0524h06,S5k0706h19,S6m0926h21,S6o1027h20,S6o1027h22,S6o1027h23,S6p1209h05,S1b0112h19,S1c0122h23,S2h0318h21,S5k0706h21,S6aH8,S6n1009h06,S1b0112h01,S1b0112h20,S1c0122h21,S1e0214h06,S1e0214h20,S2aH1,S4j0524h19,S4j0524h20,S5aH8,S5k0706h02,S6l0825h19,S6l0825h20,S6m0926h24,S6n1009h23,S6o1027h01,S1e0214h01,S1e0214h03,S2g0313h22,S4aH8,S5k0706h04,S6p1209h04,S6p1209h24,S1c0122h06,S1d0204h05,S1e0214h23,S2g0313h03,S4aH1,S4j0524h04,S5k0706h06,S6aH1,S6n1009h19,S6p1209h01,S6p1209h02,S6p1209h03,S6p1209h23,S1aH1,S1c0122h22,S1e0214h22,S2h0318h24,S4j0524h01,S6l0825h01,S6m0926h04,S6m0926h06,S6m0926h23,S6n1009h03,S1b0112h04,S1b0112h05,S1b0112h23,S1e0214h04,S4i0520h01,S4i0520h05,S5k0706h20,S5k0706h23,S6l0825h03,S6m0926h20,S6n1009h01,S6n1009h20</v>
+        <v>S1e0214h01,S1e0214h03,S2g0313h22,S4aH8,S5k0706h04,S6p1209h04,S6p1209h24,S1b0112h24,S1f0218h19,S4i0520h02,S6o1027h24,S6p1209h20,S1c0122h20,S1d0204h02,S1d0204h06,S1e0214h02,S1e0214h19,S1f0218h03,S2g0313h20,S4i0520h19,S4j0524h03,S4j0524h06,S5k0706h19,S6m0926h21,S6o1027h20,S6o1027h22,S6o1027h23,S6p1209h05,S1aH1,S1c0122h22,S1e0214h22,S2h0318h24,S4j0524h01,S6l0825h01,S6m0926h04,S6m0926h06,S6m0926h23,S6n1009h03,S1b0112h01,S1b0112h20,S1c0122h21,S1e0214h06,S1e0214h20,S2aH1,S4j0524h19,S4j0524h20,S5aH8,S5k0706h02,S6l0825h19,S6l0825h20,S6m0926h24,S6n1009h23,S6o1027h01,S1b0112h04,S1b0112h05,S1b0112h23,S1e0214h04,S4i0520h01,S4i0520h05,S5k0706h20,S5k0706h23,S6l0825h03,S6m0926h20,S6n1009h01,S6n1009h20,S1c0122h04,S1c0122h19,S1c0122h24,S1f0218h06,S1f0218h20,S1f0218h24,S2g0313h19,S2g0313h21,S2h0318h05,S2h0318h20,S4j0524h24,S6n1009h02,S1b0112h19,S1c0122h23,S2h0318h21,S5k0706h21,S6aH8,S6n1009h06,S1b0112h21,S1c0122h01,S1d0204h21,S1d0204h23,S1e0214h05,S2g0313h02,S2h0318h06,S2h0318h23,S4i0520h03,S4i0520h04,S4i0520h21,S4j0524h22,S4j0524h23,S6l0825h21,S6m0926h03,S6o1027h04,S1b0112h02,S4j0524h02,S5k0706h22,S6l0825h23,S6o1027h05,S6o1027h21,S6p1209h06,S1f0218h01,S2aH8,S2g0313h23,S2g0313h24,S2h0318h02,S4i0520h22,S4i0520h24,S4j0524h21,S5k0706h01,S6l0825h02,S6m0926h19,S6o1027h03,S1aH8,S1b0112h03,S1c0122h05,S1d0204h24,S2g0313h06,S2h0318h01,S4i0520h06,S4i0520h20,S5aH1,S6l0825h24,S6n1009h24,S6o1027h02,S6o1027h19,S1b0112h06,S1c0122h02,S1c0122h03,S1d0204h03,S1d0204h19,S1e0214h24,S1f0218h04,S1f0218h05,S1f0218h21,S2g0313h04,S2h0318h04,S2h0318h19,S2h0318h22,S3aH1,S5k0706h05,S5k0706h24,S6m0926h05,S6m0926h22,S6n1009h05,S6n1009h21,S6p1209h21,S6p1209h22,S1b0112h22,S1d0204h04,S1e0214h21,S1f0218h02,S1f0218h22,S2g0313h01,S2g0313h05,S3aH8,S4j0524h05,S5k0706h03,S6l0825h05,S6l0825h06,S6m0926h01,S6m0926h02,S6n1009h04,S6o1027h06,S1d0204h01,S1d0204h20,S1d0204h22,S1f0218h23,S2h0318h03,S4i0520h23,S6l0825h04,S6l0825h22,S6n1009h22,S6p1209h19,S1c0122h06,S1d0204h05,S1e0214h23,S2g0313h03,S4aH1,S4j0524h04,S5k0706h06,S6aH1,S6n1009h19,S6p1209h01,S6p1209h02,S6p1209h03,S6p1209h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0112h08,S1c0122h14,S1d0204h11,S1f0218h07,S1f0218h12,S2g0313h08,S2g0313h16,S3aH2,S4j0524h10,S4j0524h14,S6l0825h15,S6n1009h07,S6n1009h12,S6n1009h13,S6o1027h10,S6o1027h15,S2g0313h17,S4i0520h07,S4j0524h12,S4j0524h18,S6aH7,S6l0825h07,S6m0926h18,S6n1009h09,S6o1027h11,S6p1209h10,S1aH3,S1c0122h18,S1d0204h10,S1d0204h15,S1d0204h16,S1f0218h16,S2g0313h07,S2g0313h14,S2h0318h14,S6m0926h07,S6o1027h17,S6o1027h18,S6p1209h15,S1aH5,S1c0122h13,S1d0204h14,S2aH4,S2aH5,S2g0313h11,S2g0313h12,S2h0318h08,S4i0520h08,S4j0524h17,S5aH2,S5aH5,S5k0706h08,S6aH2,S6l0825h10,S6m0926h09,S6m0926h10,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1e0214h10,S2aH3,S3aH6,S4aH7,S4j0524h11,S5aH6,S5aH7,S5k0706h11,S5k0706h12,S6aH6,S6l0825h12,S6l0825h13,S1b0112h10,S1b0112h12,S1c0122h09,S1f0218h15,S2aH6,S2h0318h17,S3aH5,S4i0520h13,S4j0524h16,S5aH3,S5k0706h13,S6m0926h17,S6n1009h08,S6n1009h11,S6o1027h12,S6p1209h17,S6p1209h18,S1c0122h10,S1d0204h09,S1d0204h18,S1e0214h08,S1e0214h09,S1e0214h12,S2h0318h13,S3aH7,S4i0520h18,S6l0825h17,S6m0926h13,S6p1209h11,S6p1209h13,S1b0112h09,S1c0122h16,S1c0122h17,S1d0204h08,S1e0214h07,S1e0214h13,S1f0218h17,S2h0318h09,S2h0318h10,S2h0318h16,S3aH3,S4i0520h09,S5k0706h10,S6l0825h18,S6n1009h17,S6p1209h16,S1b0112h13,S1f0218h08,S1f0218h09,S2aH7,S2g0313h09,S2g0313h13,S2g0313h18,S3aH4,S4aH3,S4aH4,S4i0520h11,S4i0520h12,S5k0706h14,S6l0825h09,S6n1009h10,S6n1009h16,S6o1027h09,S1b0112h07,S1d0204h07,S1d0204h17,S1e0214h14,S1f0218h11,S2h0318h11,S4aH5,S4j0524h09,S4j0524h15,S5k0706h16,S5k0706h18,S6l0825h14,S6m0926h16,S6p1209h14,S1aH6,S1c0122h08,S1e0214h11,S1f0218h10,S2h0318h07,S6m0926h11,S6n1009h14,S6p1209h09,S1b0112h15,S1c0122h11,S1e0214h17,S2g0313h15,S2h0318h12,S4aH2,S4i0520h10,S4j0524h08,S4j0524h13,S5k0706h09,S6l0825h08,S6l0825h11,S6l0825h16,S6m0926h14,S6o1027h13,S1b0112h14,S1e0214h18,S1f0218h13,S1f0218h18,S2h0318h18,S4j0524h07,S5k0706h07,S5k0706h15,S5k0706h17,S6aH5,S6m0926h15,S6n1009h15,S6n1009h18,S6o1027h08,S6o1027h14,S1aH4,S1c0122h15,S1e0214h15,S2aH2,S2g0313h10,S4aH6,S4i0520h14,S4i0520h16,S1c0122h07,S1d0204h12,S1d0204h13,S1e0214h16,S4i0520h15,S4i0520h17,S6m0926h08,S6o1027h07,S6o1027h16,S6p1209h07,S6p1209h08,S1b0112h17,S1b0112h18,S1c0122h12,S1f0218h14,S2h0318h15,S5aH4,S6aH3,S6aH4,S6m0926h12,S6p1209h12</v>
+        <v>S1b0112h14,S1e0214h18,S1f0218h13,S1f0218h18,S2h0318h18,S4j0524h07,S5k0706h07,S5k0706h15,S5k0706h17,S6aH5,S6m0926h15,S6n1009h15,S6n1009h18,S6o1027h08,S6o1027h14,S1aH3,S1c0122h18,S1d0204h10,S1d0204h15,S1d0204h16,S1f0218h16,S2g0313h07,S2g0313h14,S2h0318h14,S6m0926h07,S6o1027h17,S6o1027h18,S6p1209h15,S1b0112h07,S1d0204h07,S1d0204h17,S1e0214h14,S1f0218h11,S2h0318h11,S4aH5,S4j0524h09,S4j0524h15,S5k0706h16,S5k0706h18,S6l0825h14,S6m0926h16,S6p1209h14,S1c0122h07,S1d0204h12,S1d0204h13,S1e0214h16,S4i0520h15,S4i0520h17,S6m0926h08,S6o1027h07,S6o1027h16,S6p1209h07,S6p1209h08,S1b0112h15,S1c0122h11,S1e0214h17,S2g0313h15,S2h0318h12,S4aH2,S4i0520h10,S4j0524h08,S4j0524h13,S5k0706h09,S6l0825h08,S6l0825h11,S6l0825h16,S6m0926h14,S6o1027h13,S1b0112h17,S1b0112h18,S1c0122h12,S1f0218h14,S2h0318h15,S5aH4,S6aH3,S6aH4,S6m0926h12,S6p1209h12,S1b0112h09,S1c0122h16,S1c0122h17,S1d0204h08,S1e0214h07,S1e0214h13,S1f0218h17,S2h0318h09,S2h0318h10,S2h0318h16,S3aH3,S4i0520h09,S5k0706h10,S6l0825h18,S6n1009h17,S6p1209h16,S1aH6,S1c0122h08,S1e0214h11,S1f0218h10,S2h0318h07,S6m0926h11,S6n1009h14,S6p1209h09,S1aH2,S1aH7,S1b0112h11,S1b0112h16,S1e0214h10,S2aH3,S3aH6,S4aH7,S4j0524h11,S5aH6,S5aH7,S5k0706h11,S5k0706h12,S6aH6,S6l0825h12,S6l0825h13,S1aH5,S1c0122h13,S1d0204h14,S2aH4,S2aH5,S2g0313h11,S2g0313h12,S2h0318h08,S4i0520h08,S4j0524h17,S5aH2,S5aH5,S5k0706h08,S6aH2,S6l0825h10,S6m0926h09,S6m0926h10,S1c0122h10,S1d0204h09,S1d0204h18,S1e0214h08,S1e0214h09,S1e0214h12,S2h0318h13,S3aH7,S4i0520h18,S6l0825h17,S6m0926h13,S6p1209h11,S6p1209h13,S1b0112h10,S1b0112h12,S1c0122h09,S1f0218h15,S2aH6,S2h0318h17,S3aH5,S4i0520h13,S4j0524h16,S5aH3,S5k0706h13,S6m0926h17,S6n1009h08,S6n1009h11,S6o1027h12,S6p1209h17,S6p1209h18,S2g0313h17,S4i0520h07,S4j0524h12,S4j0524h18,S6aH7,S6l0825h07,S6m0926h18,S6n1009h09,S6o1027h11,S6p1209h10,S1b0112h08,S1c0122h14,S1d0204h11,S1f0218h07,S1f0218h12,S2g0313h08,S2g0313h16,S3aH2,S4j0524h10,S4j0524h14,S6l0825h15,S6n1009h07,S6n1009h12,S6n1009h13,S6o1027h10,S6o1027h15,S1b0112h13,S1f0218h08,S1f0218h09,S2aH7,S2g0313h09,S2g0313h13,S2g0313h18,S3aH4,S4aH3,S4aH4,S4i0520h11,S4i0520h12,S5k0706h14,S6l0825h09,S6n1009h10,S6n1009h16,S6o1027h09,S1aH4,S1c0122h15,S1e0214h15,S2aH2,S2g0313h10,S4aH6,S4i0520h14,S4i0520h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3905,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF3C1D-8780-4772-984C-FAE441B8211E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8091BBA8-78BB-4D55-84DC-0E514D12502E}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6998,7 +6998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27193C40-64E5-4A69-A360-4FEB75E25177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3D3F06-422B-4C47-BB04-0C451AE7EDCA}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7077,10 +7077,10 @@
         <v>877</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.42249509052849649</v>
+        <v>0.13916571354582533</v>
       </c>
       <c r="O4" t="s">
         <v>888</v>
@@ -7112,10 +7112,10 @@
         <v>877</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>9.2837566628541826E-2</v>
+        <v>0.14913571721444141</v>
       </c>
       <c r="O5" t="s">
         <v>888</v>
@@ -7147,10 +7147,10 @@
         <v>877</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.13522950430522881</v>
+        <v>9.2837566628541826E-2</v>
       </c>
       <c r="O6" t="s">
         <v>888</v>
@@ -7182,10 +7182,10 @@
         <v>877</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N7">
-        <v>0.14913571721444141</v>
+        <v>0.13522950430522881</v>
       </c>
       <c r="O7" t="s">
         <v>888</v>
@@ -7217,10 +7217,10 @@
         <v>877</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.26113640777746605</v>
+        <v>0.42249509052849649</v>
       </c>
       <c r="O8" t="s">
         <v>888</v>
@@ -7252,10 +7252,10 @@
         <v>877</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N9">
-        <v>0.13916571354582533</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O9" t="s">
         <v>888</v>
@@ -17719,7 +17719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEEEBDA-81B3-4028-9159-03BDD32B0514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554885A-0ECB-44A4-8C23-E8CD031C41B4}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
